--- a/data/scheduling_DNN/predict/0.9/result19.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result19.xlsx
@@ -570,10 +570,10 @@
         <v>0.8800759315490723</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.5283970236778259</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002105889609083533</v>
+        <v>0.1236780509352684</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8676609992980957</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.3999327123165131</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2025301456451416</v>
+        <v>0.2187697440385818</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8921811580657959</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.5297557711601257</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09977125376462936</v>
+        <v>0.1313521564006805</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9218039512634277</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.4004724025726318</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0720503106713295</v>
+        <v>0.2717865705490112</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8733429908752441</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.8823693990707397</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1360238492488861</v>
+        <v>8.147604239638895e-05</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8694429397583008</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.399044007062912</v>
       </c>
       <c r="W7" t="n">
-        <v>0.164547398686409</v>
+        <v>0.2212751507759094</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8633761405944824</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5264111161231995</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0437312126159668</v>
+        <v>0.1135454252362251</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.929577112197876</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.8900375366210938</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0762607604265213</v>
+        <v>0.001563378027640283</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8840320110321045</v>
       </c>
       <c r="V10" t="n">
-        <v>0.417630136013031</v>
+        <v>0.4000206589698792</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2175307124853134</v>
+        <v>0.2342669814825058</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8634829521179199</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5208359956741333</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04391873255372047</v>
+        <v>0.1174069344997406</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8699610233306885</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.8861767649650574</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2416833490133286</v>
+        <v>0.0002629502851050347</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8954930305480957</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.8820268511772156</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1020635515451431</v>
+        <v>0.0001813379931263626</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9049210548400879</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.3992311954498291</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1718113422393799</v>
+        <v>0.2557222247123718</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9159040451049805</v>
       </c>
       <c r="V15" t="n">
-        <v>0.802417516708374</v>
+        <v>0.4009891450405121</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01287919189780951</v>
+        <v>0.2651373147964478</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8634560108184814</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5141805410385132</v>
       </c>
       <c r="W16" t="n">
-        <v>0.00364049687050283</v>
+        <v>0.1219933554530144</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8665509223937988</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.4021427035331726</v>
       </c>
       <c r="W17" t="n">
-        <v>0.08429842442274094</v>
+        <v>0.2156749963760376</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8804380893707275</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5325711965560913</v>
       </c>
       <c r="W18" t="n">
-        <v>0.006016257684677839</v>
+        <v>0.1210113763809204</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.850895881652832</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.399220883846283</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1877110451459885</v>
+        <v>0.2040103077888489</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8770761489868164</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.4018604755401611</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2760395705699921</v>
+        <v>0.2258299291133881</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8848609924316406</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.4009710848331451</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1792110949754715</v>
+        <v>0.2341494411230087</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5402131080627441</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.3990690112113953</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0002506165765225887</v>
+        <v>0.01992165669798851</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5322661399841309</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.529786229133606</v>
       </c>
       <c r="W23" t="n">
-        <v>0.005006304476410151</v>
+        <v>6.149957698653452e-06</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5314500331878662</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.8760253190994263</v>
       </c>
       <c r="W24" t="n">
-        <v>0.000703611527569592</v>
+        <v>0.1187321245670319</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5492429733276367</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.8587878346443176</v>
       </c>
       <c r="W25" t="n">
-        <v>0.003411685116589069</v>
+        <v>0.09581802040338516</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5451080799102783</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8873587250709534</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01627304963767529</v>
+        <v>0.1171355023980141</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5172281265258789</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5163310766220093</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0007582512334920466</v>
+        <v>8.046985158216557e-07</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5154099464416504</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.5322117209434509</v>
       </c>
       <c r="W28" t="n">
-        <v>0.002912108786404133</v>
+        <v>0.0002822996175382286</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5263199806213379</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8861926198005676</v>
       </c>
       <c r="W29" t="n">
-        <v>0.003901456948369741</v>
+        <v>0.1295083165168762</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5287010669708252</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.4009847044944763</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0005407336284406483</v>
+        <v>0.01631146855652332</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5156459808349609</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8695948719978333</v>
       </c>
       <c r="W31" t="n">
-        <v>0.003645115997642279</v>
+        <v>0.1252798140048981</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5232930183410645</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8693926930427551</v>
       </c>
       <c r="W32" t="n">
-        <v>2.293512807227671e-06</v>
+        <v>0.119784988462925</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5139598846435547</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.5163785815238953</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02663753554224968</v>
+        <v>5.850094566994812e-06</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5158250331878662</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.4003497660160065</v>
       </c>
       <c r="W34" t="n">
-        <v>0.004401616286486387</v>
+        <v>0.01333453692495823</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5150289535522461</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.881674587726593</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0001067721532308497</v>
+        <v>0.1344290226697922</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5662088394165039</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.8611088395118713</v>
       </c>
       <c r="W36" t="n">
-        <v>0.000597578298766166</v>
+        <v>0.08696600794792175</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5136969089508057</v>
       </c>
       <c r="V37" t="n">
-        <v>0.490370512008667</v>
+        <v>0.8649334907531738</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0005441207904368639</v>
+        <v>0.1233671382069588</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.513293981552124</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.3998909592628479</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01988494209945202</v>
+        <v>0.01286024507135153</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5130608081817627</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.4009605944156647</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0005127040785737336</v>
+        <v>0.01256645750254393</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5155019760131836</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5290582776069641</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0001172795382444747</v>
+        <v>0.0001837733143474907</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5130329132080078</v>
       </c>
       <c r="V41" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5277619957923889</v>
       </c>
       <c r="W41" t="n">
-        <v>0.08370167762041092</v>
+        <v>0.000216945874853991</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4143729209899902</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8729350566864014</v>
       </c>
       <c r="W42" t="n">
-        <v>0.03191608563065529</v>
+        <v>0.2102792263031006</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4289770126342773</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5159188508987427</v>
       </c>
       <c r="W43" t="n">
-        <v>0.009368364699184895</v>
+        <v>0.007558883167803288</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3902828693389893</v>
       </c>
       <c r="V44" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8746657967567444</v>
       </c>
       <c r="W44" t="n">
-        <v>0.168243020772934</v>
+        <v>0.2346268147230148</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3889229297637939</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.4004153609275818</v>
       </c>
       <c r="W45" t="n">
-        <v>0.06991618871688843</v>
+        <v>0.0001320759765803814</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3882210254669189</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.5217478275299072</v>
       </c>
       <c r="W46" t="n">
-        <v>0.03533636778593063</v>
+        <v>0.01782940700650215</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4150989055633545</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5301334857940674</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0006522045587189496</v>
+        <v>0.01323295477777719</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4001379013061523</v>
       </c>
       <c r="V48" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.4009600877761841</v>
       </c>
       <c r="W48" t="n">
-        <v>0.3311219215393066</v>
+        <v>6.759905772923958e-07</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3861699104309082</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.529850959777832</v>
       </c>
       <c r="W49" t="n">
-        <v>0.01414442528039217</v>
+        <v>0.02064424380660057</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3905720710754395</v>
       </c>
       <c r="V50" t="n">
-        <v>0.490329772233963</v>
+        <v>0.8643011450767517</v>
       </c>
       <c r="W50" t="n">
-        <v>0.009951598942279816</v>
+        <v>0.2244192361831665</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3868680000305176</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.5105957984924316</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01382769085466862</v>
+        <v>0.0153085682541132</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.395888090133667</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.4004539549350739</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0004742534656543285</v>
+        <v>2.084712104988284e-05</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3869960308074951</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.4009914994239807</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001314360299147666</v>
+        <v>0.0001958731445483863</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.435471773147583</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.4004250168800354</v>
       </c>
       <c r="W54" t="n">
-        <v>0.004121607169508934</v>
+        <v>0.001228275126777589</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3908400535583496</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.8678262233734131</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01322390511631966</v>
+        <v>0.2275158017873764</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3882689476013184</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.866046130657196</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01360246352851391</v>
+        <v>0.2282710373401642</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3859150409698486</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.8743118643760681</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0109362630173564</v>
+        <v>0.2385314553976059</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3857488632202148</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8819029331207275</v>
       </c>
       <c r="W58" t="n">
-        <v>0.07237763702869415</v>
+        <v>0.2461688667535782</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3867819309234619</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.4003828465938568</v>
       </c>
       <c r="W59" t="n">
-        <v>4.065249413542915e-06</v>
+        <v>0.0001849849068094045</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.458975076675415</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.3990662097930908</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01170944236218929</v>
+        <v>0.00358907226473093</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881490230560303</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.3998318016529083</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0701429471373558</v>
+        <v>0.0001364873169222847</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9127650260925293</v>
       </c>
       <c r="V62" t="n">
-        <v>0.975210964679718</v>
+        <v>0.3990422189235687</v>
       </c>
       <c r="W62" t="n">
-        <v>0.003899495350196958</v>
+        <v>0.263911098241806</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8612899780273438</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.8811332583427429</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1968075633049011</v>
+        <v>0.0003937557630706578</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8768360614776611</v>
       </c>
       <c r="V64" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.3998053073883057</v>
       </c>
       <c r="W64" t="n">
-        <v>0.005212796851992607</v>
+        <v>0.2275583446025848</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8781709671020508</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5192024707794189</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2773881852626801</v>
+        <v>0.1288583874702454</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.863724946975708</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.8573108315467834</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04496420174837112</v>
+        <v>4.114087641937658e-05</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8782081604003906</v>
       </c>
       <c r="V67" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.516673743724823</v>
       </c>
       <c r="W67" t="n">
-        <v>0.001956734340637922</v>
+        <v>0.1307071298360825</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8893680572509766</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.5159861445426941</v>
       </c>
       <c r="W68" t="n">
-        <v>0.159636452794075</v>
+        <v>0.139414057135582</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8595919609069824</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8783539533615112</v>
       </c>
       <c r="W69" t="n">
-        <v>0.07425610721111298</v>
+        <v>0.0003520123718772084</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8604397773742676</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8780132532119751</v>
       </c>
       <c r="W70" t="n">
-        <v>0.02604654245078564</v>
+        <v>0.0003088270605076104</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8752150535583496</v>
       </c>
       <c r="V71" t="n">
-        <v>0.490833193063736</v>
+        <v>0.4021592438220978</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1477494090795517</v>
+        <v>0.2237817943096161</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8724410533905029</v>
       </c>
       <c r="V72" t="n">
-        <v>0.652911365032196</v>
+        <v>0.5036197900772095</v>
       </c>
       <c r="W72" t="n">
-        <v>0.04819328337907791</v>
+        <v>0.1360291242599487</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8618340492248535</v>
       </c>
       <c r="V73" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5163439512252808</v>
       </c>
       <c r="W73" t="n">
-        <v>0.0007901132921688259</v>
+        <v>0.1193634048104286</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8569347858428955</v>
       </c>
       <c r="V74" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5213751792907715</v>
       </c>
       <c r="W74" t="n">
-        <v>0.02216866426169872</v>
+        <v>0.11260025203228</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8567419052124023</v>
       </c>
       <c r="V75" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.875912070274353</v>
       </c>
       <c r="W75" t="n">
-        <v>0.0005124504095874727</v>
+        <v>0.0003674952313303947</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8712930679321289</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8722129464149475</v>
       </c>
       <c r="W76" t="n">
-        <v>0.04753280803561211</v>
+        <v>8.461764195999422e-07</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>1.038961887359619</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.3990496098995209</v>
       </c>
       <c r="W77" t="n">
-        <v>0.05613842979073524</v>
+        <v>0.4094876945018768</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8774948120117188</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8757272958755493</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1246045678853989</v>
+        <v>3.124113391095307e-06</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8625481128692627</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.516227662563324</v>
       </c>
       <c r="W79" t="n">
-        <v>0.07174543291330338</v>
+        <v>0.119937852025032</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9121170043945312</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5066258907318115</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2917234301567078</v>
+        <v>0.1644230484962463</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8605878353118896</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.5318758487701416</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1962136030197144</v>
+        <v>0.1080515682697296</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5465860366821289</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8668176531791687</v>
       </c>
       <c r="W82" t="n">
-        <v>0.0004839246103074402</v>
+        <v>0.102548286318779</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5210649967193604</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8696332573890686</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0002574545796960592</v>
+        <v>0.1214998289942741</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5170390605926514</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.8693060278892517</v>
       </c>
       <c r="W84" t="n">
-        <v>0.08078207820653915</v>
+        <v>0.1240920126438141</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5664689540863037</v>
       </c>
       <c r="V85" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.5309500694274902</v>
       </c>
       <c r="W85" t="n">
-        <v>0.05581577122211456</v>
+        <v>0.001261591212823987</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5162448883056641</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.8731797933578491</v>
       </c>
       <c r="W86" t="n">
-        <v>0.009724798612296581</v>
+        <v>0.1274025291204453</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5175998210906982</v>
       </c>
       <c r="V87" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.5210848450660706</v>
       </c>
       <c r="W87" t="n">
-        <v>0.2102034240961075</v>
+        <v>1.214539224747568e-05</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5096049308776855</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5299116373062134</v>
       </c>
       <c r="W88" t="n">
-        <v>0.03122510015964508</v>
+        <v>0.0004123623366467655</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.515902042388916</v>
       </c>
       <c r="V89" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.5109086036682129</v>
       </c>
       <c r="W89" t="n">
-        <v>0.1012395545840263</v>
+        <v>2.493443025741726e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5152759552001953</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.8750331997871399</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0005995367537252605</v>
+        <v>0.1294252723455429</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5347540378570557</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.40041384100914</v>
       </c>
       <c r="W91" t="n">
-        <v>9.918132855091244e-05</v>
+        <v>0.01804728806018829</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5182080268859863</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.3998779952526093</v>
       </c>
       <c r="W92" t="n">
-        <v>5.563734521274455e-05</v>
+        <v>0.01400199625641108</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5175151824951172</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.8762856125831604</v>
       </c>
       <c r="W93" t="n">
-        <v>0.02780040912330151</v>
+        <v>0.1287162154912949</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5140619277954102</v>
       </c>
       <c r="V94" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4022603631019592</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02024411037564278</v>
+        <v>0.01249958947300911</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5156261920928955</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.5290337800979614</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0001444171648472548</v>
+        <v>0.0001797634176909924</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5681450366973877</v>
       </c>
       <c r="V96" t="n">
-        <v>0.576347291469574</v>
+        <v>0.8666112422943115</v>
       </c>
       <c r="W96" t="n">
-        <v>6.727698200847954e-05</v>
+        <v>0.08908207714557648</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5210428237915039</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.8674690127372742</v>
       </c>
       <c r="W97" t="n">
-        <v>0.07908962666988373</v>
+        <v>0.120011106133461</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5160708427429199</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8781028389930725</v>
       </c>
       <c r="W98" t="n">
-        <v>0.002196388319134712</v>
+        <v>0.1310671716928482</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5164201259613037</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8704261779785156</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0006815496599301696</v>
+        <v>0.1253202855587006</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5138189792633057</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.8745241761207581</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0005368127604015172</v>
+        <v>0.1301082372665405</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5259408950805664</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5288294553756714</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01636507548391819</v>
+        <v>8.343780791619793e-06</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4133501052856445</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.8636687994003296</v>
       </c>
       <c r="W102" t="n">
-        <v>0.05759311094880104</v>
+        <v>0.202786922454834</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4049351215362549</v>
       </c>
       <c r="V103" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.5236663818359375</v>
       </c>
       <c r="W103" t="n">
-        <v>0.3256537914276123</v>
+        <v>0.01409711223095655</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3962719440460205</v>
       </c>
       <c r="V104" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.5269995331764221</v>
       </c>
       <c r="W104" t="n">
-        <v>0.1647913008928299</v>
+        <v>0.01708970218896866</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4027221202850342</v>
       </c>
       <c r="V105" t="n">
-        <v>0.708076536655426</v>
+        <v>0.4018044173717499</v>
       </c>
       <c r="W105" t="n">
-        <v>0.09324131906032562</v>
+        <v>8.421786219514615e-07</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3926429748535156</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.497156023979187</v>
       </c>
       <c r="W106" t="n">
-        <v>0.009619904682040215</v>
+        <v>0.01092297770082951</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3902091979980469</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.3998133838176727</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0003344776923768222</v>
+        <v>9.224038512911648e-05</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3911230564117432</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.887664794921875</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0001573393819853663</v>
+        <v>0.2465537041425705</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3926730155944824</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.4018704891204834</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01755563169717789</v>
+        <v>8.459352102363482e-05</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.388789176940918</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.5182084441184998</v>
       </c>
       <c r="W110" t="n">
-        <v>0.03513830527663231</v>
+        <v>0.01674934662878513</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3967311382293701</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.3998131155967712</v>
       </c>
       <c r="W111" t="n">
-        <v>0.06453105062246323</v>
+        <v>9.498584404354915e-06</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4083321094512939</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.8732982873916626</v>
       </c>
       <c r="W112" t="n">
-        <v>8.52790690260008e-05</v>
+        <v>0.2161935418844223</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3889851570129395</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.402189165353775</v>
       </c>
       <c r="W113" t="n">
-        <v>0.04232798144221306</v>
+        <v>0.000174345841514878</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3896899223327637</v>
       </c>
       <c r="V114" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.5249972939491272</v>
       </c>
       <c r="W114" t="n">
-        <v>0.169659823179245</v>
+        <v>0.01830808445811272</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3974769115447998</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8656038045883179</v>
       </c>
       <c r="W115" t="n">
-        <v>0.01130697689950466</v>
+        <v>0.2191427946090698</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3896780014038086</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.8679896593093872</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01024185866117477</v>
+        <v>0.2287820428609848</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3897068500518799</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.4019852876663208</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01300520729273558</v>
+        <v>0.0001507600245531648</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4027938842773438</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.5292282700538635</v>
       </c>
       <c r="W118" t="n">
-        <v>0.000219999419641681</v>
+        <v>0.01598565466701984</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3890450000762939</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5209990739822388</v>
       </c>
       <c r="W119" t="n">
-        <v>0.06994916498661041</v>
+        <v>0.01741187833249569</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4516420364379883</v>
       </c>
       <c r="V120" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.8740874528884888</v>
       </c>
       <c r="W120" t="n">
-        <v>0.2746725678443909</v>
+        <v>0.1784601360559464</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3880558013916016</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.8757984638214111</v>
       </c>
       <c r="W121" t="n">
-        <v>0.0053967060521245</v>
+        <v>0.2378929108381271</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8737239837646484</v>
       </c>
       <c r="V122" t="n">
-        <v>0.505433976650238</v>
+        <v>0.4019522964954376</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1356375366449356</v>
+        <v>0.2225685268640518</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9216129779815674</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.5334227681159973</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2951318025588989</v>
+        <v>0.1506916433572769</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9054698944091797</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.3990651071071625</v>
       </c>
       <c r="W124" t="n">
-        <v>0.04253845289349556</v>
+        <v>0.2564457654953003</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.869758129119873</v>
       </c>
       <c r="V125" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.8668217062950134</v>
       </c>
       <c r="W125" t="n">
-        <v>0.0261274091899395</v>
+        <v>8.62257911649067e-06</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8722028732299805</v>
       </c>
       <c r="V126" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.4004171192646027</v>
       </c>
       <c r="W126" t="n">
-        <v>0.0009455647086724639</v>
+        <v>0.2225818037986755</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8680789470672607</v>
       </c>
       <c r="V127" t="n">
-        <v>0.654336154460907</v>
+        <v>0.8713952898979187</v>
       </c>
       <c r="W127" t="n">
-        <v>0.04568598046898842</v>
+        <v>1.099813016480766e-05</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9072549343109131</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.401933491230011</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2396906763315201</v>
+        <v>0.2553497552871704</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8536148071289062</v>
       </c>
       <c r="V129" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8837925791740417</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2528555393218994</v>
+        <v>0.0009106979123316705</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8700978755950928</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.8692775368690491</v>
       </c>
       <c r="W130" t="n">
-        <v>0.04685384407639503</v>
+        <v>6.729556503159984e-07</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8654320240020752</v>
       </c>
       <c r="V131" t="n">
-        <v>0.372467577457428</v>
+        <v>0.4001597464084625</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2430139482021332</v>
+        <v>0.2164782881736755</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9206140041351318</v>
       </c>
       <c r="V132" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.5160176157951355</v>
       </c>
       <c r="W132" t="n">
-        <v>0.003022791584953666</v>
+        <v>0.1636982411146164</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8768758773803711</v>
       </c>
       <c r="V133" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5268548130989075</v>
       </c>
       <c r="W133" t="n">
-        <v>0.001578753348439932</v>
+        <v>0.1225147470831871</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8594970703125</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.8761706948280334</v>
       </c>
       <c r="W134" t="n">
-        <v>0.02568421140313148</v>
+        <v>0.0002780097420327365</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8773629665374756</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.4003901183605194</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2812514305114746</v>
+        <v>0.2275030910968781</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.912168025970459</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.8866656422615051</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1086140647530556</v>
+        <v>0.0006503715994767845</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8695828914642334</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.5665363669395447</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1646366268396378</v>
+        <v>0.09183719754219055</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8611979484558105</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.5295155048370361</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1130487993359566</v>
+        <v>0.1100132465362549</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8670740127563477</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.5319879055023193</v>
       </c>
       <c r="W139" t="n">
-        <v>0.08455502241849899</v>
+        <v>0.1122827008366585</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9231870174407959</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5317084193229675</v>
       </c>
       <c r="W140" t="n">
-        <v>0.07255551964044571</v>
+        <v>0.1532554924488068</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8668670654296875</v>
       </c>
       <c r="V141" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.873785674571991</v>
       </c>
       <c r="W141" t="n">
-        <v>0.02666145190596581</v>
+        <v>4.786715362570249e-05</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5301880836486816</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.3998877108097076</v>
       </c>
       <c r="W142" t="n">
-        <v>0.02857293747365475</v>
+        <v>0.01697818748652935</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5204591751098633</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.8736568093299866</v>
       </c>
       <c r="W143" t="n">
-        <v>0.003107219934463501</v>
+        <v>0.1247485652565956</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5223519802093506</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.5162491202354431</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01098323054611683</v>
+        <v>3.724489943124354e-05</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5702438354492188</v>
       </c>
       <c r="V145" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.4018782675266266</v>
       </c>
       <c r="W145" t="n">
-        <v>0.05463417991995811</v>
+        <v>0.02834696508944035</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5222780704498291</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.5096883177757263</v>
       </c>
       <c r="W146" t="n">
-        <v>0.003594223409891129</v>
+        <v>0.0001585018762852997</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5579400062561035</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.4009612500667572</v>
       </c>
       <c r="W147" t="n">
-        <v>0.008848371915519238</v>
+        <v>0.02464232966303825</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5186409950256348</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.8979442715644836</v>
       </c>
       <c r="W148" t="n">
-        <v>0.02818763628602028</v>
+        <v>0.1438709795475006</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5216400623321533</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.3999390006065369</v>
       </c>
       <c r="W149" t="n">
-        <v>0.02926059439778328</v>
+        <v>0.01481114886701107</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5189321041107178</v>
       </c>
       <c r="V150" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.8758783936500549</v>
       </c>
       <c r="W150" t="n">
-        <v>0.07923895120620728</v>
+        <v>0.1274106502532959</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5185389518737793</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.5230740308761597</v>
       </c>
       <c r="W151" t="n">
-        <v>3.905385892721824e-05</v>
+        <v>2.056694211205468e-05</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5196919441223145</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.400980532169342</v>
       </c>
       <c r="W152" t="n">
-        <v>0.02816966734826565</v>
+        <v>0.014092399738729</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5183861255645752</v>
       </c>
       <c r="V153" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.3998346626758575</v>
       </c>
       <c r="W153" t="n">
-        <v>0.08189941197633743</v>
+        <v>0.01405444927513599</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5178849697113037</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.3990658223628998</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0002195823326474056</v>
+        <v>0.01411798968911171</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5190579891204834</v>
       </c>
       <c r="V155" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.8738809823989868</v>
       </c>
       <c r="W155" t="n">
-        <v>0.208058625459671</v>
+        <v>0.1258993595838547</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5748291015625</v>
       </c>
       <c r="V156" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5155088901519775</v>
       </c>
       <c r="W156" t="n">
-        <v>0.1605986356735229</v>
+        <v>0.003518887562677264</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.52199387550354</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.88100665807724</v>
       </c>
       <c r="W157" t="n">
-        <v>0.003676137188449502</v>
+        <v>0.1288901716470718</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5196099281311035</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.3992101550102234</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01039583049714565</v>
+        <v>0.01449610572308302</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.517909049987793</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.4004300534725189</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0007268761983141303</v>
+        <v>0.01380131486803293</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.513592004776001</v>
       </c>
       <c r="V160" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.876862108707428</v>
       </c>
       <c r="W160" t="n">
-        <v>0.1056572273373604</v>
+        <v>0.1319651752710342</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5640079975128174</v>
       </c>
       <c r="V161" t="n">
-        <v>0.503772497177124</v>
+        <v>0.4009955227375031</v>
       </c>
       <c r="W161" t="n">
-        <v>0.003628315404057503</v>
+        <v>0.02657306753098965</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3895590305328369</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.5236461162567139</v>
       </c>
       <c r="W162" t="n">
-        <v>0.01023149862885475</v>
+        <v>0.01797934621572495</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3904240131378174</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.516410231590271</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0003435358521528542</v>
+        <v>0.0158725269138813</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3974270820617676</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.3990643322467804</v>
       </c>
       <c r="W164" t="n">
-        <v>0.008730041794478893</v>
+        <v>2.680588067960343e-06</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3919899463653564</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.4018701910972595</v>
       </c>
       <c r="W165" t="n">
-        <v>0.004777502734214067</v>
+        <v>9.761923865880817e-05</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3884119987487793</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.4009467661380768</v>
       </c>
       <c r="W166" t="n">
-        <v>0.06956177949905396</v>
+        <v>0.0001571203902130947</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3938169479370117</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.5197226405143738</v>
       </c>
       <c r="W167" t="n">
-        <v>0.00940101221203804</v>
+        <v>0.01585224270820618</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3880419731140137</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.4003857374191284</v>
       </c>
       <c r="W168" t="n">
-        <v>0.07014016807079315</v>
+        <v>0.0001523685205029324</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3918697834014893</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.5303187966346741</v>
       </c>
       <c r="W169" t="n">
-        <v>0.001628345344215631</v>
+        <v>0.01916812919080257</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3917210102081299</v>
       </c>
       <c r="V170" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.5311801433563232</v>
       </c>
       <c r="W170" t="n">
-        <v>0.0176465380936861</v>
+        <v>0.01944885030388832</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3891420364379883</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.3999434411525726</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0132518857717514</v>
+        <v>0.0001166703441413119</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3981530666351318</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5157641172409058</v>
       </c>
       <c r="W172" t="n">
-        <v>0.0658113956451416</v>
+        <v>0.01383235957473516</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3937509059906006</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.4000397026538849</v>
       </c>
       <c r="W173" t="n">
-        <v>0.004539190325886011</v>
+        <v>3.954896237701178e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3993968963623047</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.5276578068733215</v>
       </c>
       <c r="W174" t="n">
-        <v>0.03532218188047409</v>
+        <v>0.01645086146891117</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4135229587554932</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.4004198014736176</v>
       </c>
       <c r="W175" t="n">
-        <v>1.711657205305528e-05</v>
+        <v>0.0001716927363304421</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3927271366119385</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.4003922641277313</v>
       </c>
       <c r="W176" t="n">
-        <v>0.06843045353889465</v>
+        <v>5.875417991774157e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4053421020507812</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.8690565824508667</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0007547085406258702</v>
+        <v>0.2150311172008514</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4009919166564941</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8663912415504456</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0008348842966370285</v>
+        <v>0.2165965288877487</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3946819305419922</v>
       </c>
       <c r="V179" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.5295994281768799</v>
       </c>
       <c r="W179" t="n">
-        <v>0.1680703014135361</v>
+        <v>0.01820273138582706</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4522020816802979</v>
       </c>
       <c r="V180" t="n">
-        <v>0.490907609462738</v>
+        <v>0.8869038224220276</v>
       </c>
       <c r="W180" t="n">
-        <v>0.00149811792653054</v>
+        <v>0.1889656037092209</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4426181316375732</v>
       </c>
       <c r="V181" t="n">
-        <v>0.417663037776947</v>
+        <v>0.8672869801521301</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0006227567209862173</v>
+        <v>0.1803436279296875</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8774290084838867</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5326636433601379</v>
       </c>
       <c r="W182" t="n">
-        <v>0.0501982606947422</v>
+        <v>0.11886315792799</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9079790115356445</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.4000463783740997</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1104591861367226</v>
+        <v>0.2579955756664276</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8884279727935791</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.5093324780464172</v>
       </c>
       <c r="W184" t="n">
-        <v>0.09358132630586624</v>
+        <v>0.1437133997678757</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8677070140838623</v>
       </c>
       <c r="V185" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5278564691543579</v>
       </c>
       <c r="W185" t="n">
-        <v>0.00427099596709013</v>
+        <v>0.1154983937740326</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8638520240783691</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5160632729530334</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2428888231515884</v>
+        <v>0.1209570169448853</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8890640735626221</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8735659122467041</v>
       </c>
       <c r="W187" t="n">
-        <v>0.05548534169793129</v>
+        <v>0.0002401930105406791</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9203848838806152</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8869693279266357</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1854574382305145</v>
+        <v>0.001116599421948195</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8613359928131104</v>
       </c>
       <c r="V189" t="n">
-        <v>0.801636278629303</v>
+        <v>0.3992292881011963</v>
       </c>
       <c r="W189" t="n">
-        <v>0.00356405577622354</v>
+        <v>0.2135426104068756</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8645191192626953</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.8928185105323792</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1608231514692307</v>
+        <v>0.0008008555741980672</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8686659336090088</v>
       </c>
       <c r="V191" t="n">
-        <v>0.699232816696167</v>
+        <v>0.399046927690506</v>
       </c>
       <c r="W191" t="n">
-        <v>0.02870758064091206</v>
+        <v>0.2205420136451721</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9145469665527344</v>
       </c>
       <c r="V192" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.3992263972759247</v>
       </c>
       <c r="W192" t="n">
-        <v>0.3166283071041107</v>
+        <v>0.2655552625656128</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8666450977325439</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.5320923328399658</v>
       </c>
       <c r="W193" t="n">
-        <v>0.04559679329395294</v>
+        <v>0.1119255498051643</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8691380023956299</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.4000349938869476</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1325250864028931</v>
+        <v>0.2200576364994049</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8609139919281006</v>
       </c>
       <c r="V195" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.5239944458007812</v>
       </c>
       <c r="W195" t="n">
-        <v>0.01325803436338902</v>
+        <v>0.11351478099823</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9102509021759033</v>
       </c>
       <c r="V196" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5207227468490601</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1486944109201431</v>
+        <v>0.1517321765422821</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8614652156829834</v>
       </c>
       <c r="V197" t="n">
-        <v>0.417652815580368</v>
+        <v>0.8736545443534851</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1969694495201111</v>
+        <v>0.0001485797401983291</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8702621459960938</v>
       </c>
       <c r="V198" t="n">
-        <v>0.838257908821106</v>
+        <v>0.3993255198001862</v>
       </c>
       <c r="W198" t="n">
-        <v>0.001024271245114505</v>
+        <v>0.2217812985181808</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8611359596252441</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.400427371263504</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1966778039932251</v>
+        <v>0.2122524082660675</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.922266960144043</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.3990362584590912</v>
       </c>
       <c r="W200" t="n">
-        <v>0.07207491993904114</v>
+        <v>0.2737703323364258</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8660149574279785</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.4004085659980774</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1620258986949921</v>
+        <v>0.2167893052101135</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5172791481018066</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8715733885765076</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0001685202296357602</v>
+        <v>0.1255244016647339</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5152678489685059</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.5287503004074097</v>
       </c>
       <c r="W203" t="n">
-        <v>0.03384703397750854</v>
+        <v>0.0001817765005398542</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5202019214630127</v>
       </c>
       <c r="V204" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.4004587829113007</v>
       </c>
       <c r="W204" t="n">
-        <v>0.07854878902435303</v>
+        <v>0.014338418841362</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5655310153961182</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.5159583687782288</v>
       </c>
       <c r="W205" t="n">
-        <v>0.03741584718227386</v>
+        <v>0.002457447350025177</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5185132026672363</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5283740758895874</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02813578397035599</v>
+        <v>9.723682160256431e-05</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5197618007659912</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5282096266746521</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02856451645493507</v>
+        <v>7.136576459743083e-05</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5155971050262451</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5290518403053284</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0001077573906513862</v>
+        <v>0.0001810298999771476</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5225050449371338</v>
       </c>
       <c r="V209" t="n">
-        <v>0.35074183344841</v>
+        <v>0.400976687669754</v>
       </c>
       <c r="W209" t="n">
-        <v>0.02950260043144226</v>
+        <v>0.01476914156228304</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5176210403442383</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.508924663066864</v>
       </c>
       <c r="W210" t="n">
-        <v>0.003191238502040505</v>
+        <v>7.562698010588065e-05</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.519507884979248</v>
       </c>
       <c r="V211" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5178542733192444</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01037434581667185</v>
+        <v>2.734431518547353e-06</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5230588912963867</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.4000353217124939</v>
       </c>
       <c r="W212" t="n">
-        <v>0.002901227911934257</v>
+        <v>0.01513479836285114</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5197830200195312</v>
       </c>
       <c r="V213" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.5268532633781433</v>
       </c>
       <c r="W213" t="n">
-        <v>0.03378434106707573</v>
+        <v>4.998834265279584e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5210931301116943</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.3990495502948761</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01072885282337666</v>
+        <v>0.01489463541656733</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5216929912567139</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5094690918922424</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01085878442972898</v>
+        <v>0.0001494237221777439</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5793759822845459</v>
       </c>
       <c r="V216" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.873960554599762</v>
       </c>
       <c r="W216" t="n">
-        <v>0.1569365710020065</v>
+        <v>0.08678007125854492</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5223038196563721</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.8651273846626282</v>
       </c>
       <c r="W217" t="n">
-        <v>0.02072146907448769</v>
+        <v>0.11752799898386</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5224268436431885</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8835363388061523</v>
       </c>
       <c r="W218" t="n">
-        <v>1.140950098488247e-05</v>
+        <v>0.1304000616073608</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5215280055999756</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8926629424095154</v>
       </c>
       <c r="W219" t="n">
-        <v>0.02916176803410053</v>
+        <v>0.1377411484718323</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.520237922668457</v>
       </c>
       <c r="V220" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.8699902892112732</v>
       </c>
       <c r="W220" t="n">
-        <v>0.2073359042406082</v>
+        <v>0.1223267167806625</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5750319957733154</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5230259299278259</v>
       </c>
       <c r="W221" t="n">
-        <v>0.004887265153229237</v>
+        <v>0.002704630838707089</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3853199481964111</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.4001840054988861</v>
       </c>
       <c r="W222" t="n">
-        <v>0.09456813335418701</v>
+        <v>0.0002209402009611949</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3860340118408203</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.5158306956291199</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01417892705649137</v>
+        <v>0.01684717833995819</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3890368938446045</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.5311996340751648</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0002920138649642467</v>
+        <v>0.02021024562418461</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3898341655731201</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5225510597229004</v>
       </c>
       <c r="W225" t="n">
-        <v>0.001527013024315238</v>
+        <v>0.01761377416551113</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3917610645294189</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8711831569671631</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01759610697627068</v>
+        <v>0.2298455387353897</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3967130184173584</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.5453274846076965</v>
       </c>
       <c r="W227" t="n">
-        <v>0.002467752434313297</v>
+        <v>0.0220862589776516</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3917720317840576</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5275837779045105</v>
       </c>
       <c r="W228" t="n">
-        <v>0.001682770438492298</v>
+        <v>0.01844483055174351</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4049980640411377</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.8699991106987</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1803557276725769</v>
+        <v>0.2162259668111801</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3933031558990479</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.522571325302124</v>
       </c>
       <c r="W230" t="n">
-        <v>0.001810454064980149</v>
+        <v>0.01671025902032852</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3891949653625488</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.865922749042511</v>
       </c>
       <c r="W231" t="n">
-        <v>0.00556937325745821</v>
+        <v>0.2272693812847137</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3924939632415771</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5313203930854797</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1664198786020279</v>
+        <v>0.01927277818322182</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3936381340026855</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.3993259370326996</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01719685457646847</v>
+        <v>3.235110489185899e-05</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3953220844268799</v>
       </c>
       <c r="V234" t="n">
-        <v>0.405481219291687</v>
+        <v>0.8697243332862854</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0001032080181175843</v>
+        <v>0.2250574976205826</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3943848609924316</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5163124799728394</v>
       </c>
       <c r="W235" t="n">
-        <v>0.08907712996006012</v>
+        <v>0.01486634463071823</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3963310718536377</v>
       </c>
       <c r="V236" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.8857991099357605</v>
       </c>
       <c r="W236" t="n">
-        <v>0.09718552976846695</v>
+        <v>0.2395789623260498</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3928289413452148</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.5664787888526917</v>
       </c>
       <c r="W237" t="n">
-        <v>0.0377349779009819</v>
+        <v>0.0301542691886425</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3898689746856689</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.3990677893161774</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01859216205775738</v>
+        <v>8.461819379590452e-05</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3886690139770508</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.3990706205368042</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0008389744907617569</v>
+        <v>0.0001081934169633314</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4348142147064209</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.4009946584701538</v>
       </c>
       <c r="W240" t="n">
-        <v>0.000295250560157001</v>
+        <v>0.00114376237615943</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3948988914489746</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.8684778809547424</v>
       </c>
       <c r="W241" t="n">
-        <v>0.06667345017194748</v>
+        <v>0.224277064204216</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9513580799102783</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5326281785964966</v>
       </c>
       <c r="W242" t="n">
-        <v>0.06357165426015854</v>
+        <v>0.1753347367048264</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9071230888366699</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.3990605771541595</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1736967712640762</v>
+        <v>0.2581274807453156</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9055731296539307</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5164139866828918</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1332029849290848</v>
+        <v>0.1514448374509811</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8758578300476074</v>
       </c>
       <c r="V245" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8738049864768982</v>
       </c>
       <c r="W245" t="n">
-        <v>0.002135137328878045</v>
+        <v>4.214166892779758e-06</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8632829189300537</v>
       </c>
       <c r="V246" t="n">
-        <v>0.653493344783783</v>
+        <v>0.8671991229057312</v>
       </c>
       <c r="W246" t="n">
-        <v>0.04401166364550591</v>
+        <v>1.533665272290818e-05</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8680729866027832</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.4009548425674438</v>
       </c>
       <c r="W247" t="n">
-        <v>0.2029801160097122</v>
+        <v>0.2181993573904037</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9254651069641113</v>
       </c>
       <c r="V248" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5183371305465698</v>
       </c>
       <c r="W248" t="n">
-        <v>0.07289989292621613</v>
+        <v>0.165753185749054</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8758151531219482</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.400443822145462</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2756560146808624</v>
+        <v>0.225977897644043</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.873121976852417</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.531173050403595</v>
       </c>
       <c r="W250" t="n">
-        <v>0.03255496174097061</v>
+        <v>0.1169290691614151</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8866560459136963</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.3990565240383148</v>
       </c>
       <c r="W251" t="n">
-        <v>0.09257502853870392</v>
+        <v>0.2377532869577408</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9379360675811768</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.3990542888641357</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2001000493764877</v>
+        <v>0.2903935611248016</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8752748966217041</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.5181846618652344</v>
       </c>
       <c r="W253" t="n">
-        <v>0.03333108127117157</v>
+        <v>0.1275134384632111</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8672950267791748</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.4006770551204681</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1627943217754364</v>
+        <v>0.2177323251962662</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8701579570770264</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.516421914100647</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2480300515890121</v>
+        <v>0.1251291930675507</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9389669895172119</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.4019478261470795</v>
       </c>
       <c r="W256" t="n">
-        <v>0.06385001540184021</v>
+        <v>0.2883895635604858</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8714439868927002</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.4004594385623932</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1452018469572067</v>
+        <v>0.2218264490365982</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8583431243896484</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.8897008895874023</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2576600015163422</v>
+        <v>0.0009833094663918018</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8718819618225098</v>
       </c>
       <c r="V259" t="n">
-        <v>0.417632520198822</v>
+        <v>0.86004638671875</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2063425481319427</v>
+        <v>0.0001400808396283537</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9238181114196777</v>
       </c>
       <c r="V260" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8672088384628296</v>
       </c>
       <c r="W260" t="n">
-        <v>0.04647259786725044</v>
+        <v>0.003204609733074903</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8713071346282959</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.5286926031112671</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1545892059803009</v>
+        <v>0.1173847168684006</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.524357795715332</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.5653694868087769</v>
       </c>
       <c r="W262" t="n">
-        <v>0.00395587831735611</v>
+        <v>0.001681958790868521</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5357398986816406</v>
       </c>
       <c r="V263" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.5165449380874634</v>
       </c>
       <c r="W263" t="n">
-        <v>0.193500816822052</v>
+        <v>0.0003684465191327035</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5208039283752441</v>
       </c>
       <c r="V264" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.516595184803009</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02032373659312725</v>
+        <v>1.771352253854275e-05</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5754790306091309</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8755917549133301</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01299983076751232</v>
+        <v>0.09006764739751816</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5243031978607178</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5270953178405762</v>
       </c>
       <c r="W266" t="n">
-        <v>0.002687404863536358</v>
+        <v>7.795933925081044e-06</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5236918926239014</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.5324653387069702</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02103151194751263</v>
+        <v>7.697335968259722e-05</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5233151912689209</v>
       </c>
       <c r="V268" t="n">
-        <v>0.590633749961853</v>
+        <v>0.4000324308872223</v>
       </c>
       <c r="W268" t="n">
-        <v>0.004531788174062967</v>
+        <v>0.01519863866269588</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5235910415649414</v>
       </c>
       <c r="V269" t="n">
-        <v>0.97564297914505</v>
+        <v>0.886959969997406</v>
       </c>
       <c r="W269" t="n">
-        <v>0.2043509483337402</v>
+        <v>0.1320369839668274</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5371921062469482</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5228227972984314</v>
       </c>
       <c r="W270" t="n">
-        <v>0.002880262909457088</v>
+        <v>0.0002064770378638059</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5254440307617188</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.399059921503067</v>
       </c>
       <c r="W271" t="n">
-        <v>0.02130761928856373</v>
+        <v>0.01597294397652149</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5326879024505615</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.4000225067138672</v>
       </c>
       <c r="W272" t="n">
-        <v>6.076537101762369e-05</v>
+        <v>0.01760010793805122</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5249629020690918</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.8747580647468567</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01151794288307428</v>
+        <v>0.122356653213501</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5662798881530762</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4004009962081909</v>
       </c>
       <c r="W274" t="n">
-        <v>0.001719379564747214</v>
+        <v>0.02751580625772476</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.526979923248291</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.4018025100231171</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01608815789222717</v>
+        <v>0.01566938497126102</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5211200714111328</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.3990457653999329</v>
       </c>
       <c r="W276" t="n">
-        <v>0.003282808698713779</v>
+        <v>0.01490213628858328</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5230538845062256</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8891436457633972</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01676766388118267</v>
+        <v>0.1340217143297195</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5211920738220215</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8896598219871521</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01752036437392235</v>
+        <v>0.1357684880495071</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.518333911895752</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.8707948923110962</v>
       </c>
       <c r="W279" t="n">
-        <v>3.902480966644362e-05</v>
+        <v>0.1242287456989288</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5183570384979248</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.859943687915802</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0001901019568322226</v>
+        <v>0.1166814416646957</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5770409107208252</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.5162404179573059</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02543891035020351</v>
+        <v>0.003696699859574437</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4212188720703125</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.8817082047462463</v>
       </c>
       <c r="W282" t="n">
-        <v>1.284525205846876e-05</v>
+        <v>0.2120504230260849</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3988840579986572</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.8772544264793396</v>
       </c>
       <c r="W283" t="n">
-        <v>0.1929872632026672</v>
+        <v>0.2288382053375244</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3965771198272705</v>
       </c>
       <c r="V284" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.8736372590065002</v>
       </c>
       <c r="W284" t="n">
-        <v>0.002445884281769395</v>
+        <v>0.2275863736867905</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3919050693511963</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8706313371658325</v>
       </c>
       <c r="W285" t="n">
-        <v>0.00512330699712038</v>
+        <v>0.2291788458824158</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3981080055236816</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8664543032646179</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0003687394491862506</v>
+        <v>0.2193482518196106</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4517161846160889</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8871674537658691</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1216485127806664</v>
+        <v>0.1896178126335144</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3978021144866943</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.8752121925354004</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1618144512176514</v>
+        <v>0.2279203832149506</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4025349617004395</v>
       </c>
       <c r="V289" t="n">
-        <v>0.975181519985199</v>
+        <v>0.8799542784690857</v>
       </c>
       <c r="W289" t="n">
-        <v>0.3279240727424622</v>
+        <v>0.2279292047023773</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3955140113830566</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.400423675775528</v>
       </c>
       <c r="W290" t="n">
-        <v>0.01679317466914654</v>
+        <v>2.410480374237522e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3961632251739502</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.3998766839504242</v>
       </c>
       <c r="W291" t="n">
-        <v>0.03791254758834839</v>
+        <v>1.378977594868047e-05</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.403317928314209</v>
       </c>
       <c r="V292" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.4004490673542023</v>
       </c>
       <c r="W292" t="n">
-        <v>0.3270647823810577</v>
+        <v>8.230363164329901e-06</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3942599296569824</v>
       </c>
       <c r="V293" t="n">
-        <v>0.653571605682373</v>
+        <v>0.3990713655948639</v>
       </c>
       <c r="W293" t="n">
-        <v>0.06724254786968231</v>
+        <v>2.314991616003681e-05</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3938801288604736</v>
       </c>
       <c r="V294" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.4019359648227692</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1687957048416138</v>
+        <v>6.489649240393192e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3980469703674316</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.3990441858768463</v>
       </c>
       <c r="W295" t="n">
-        <v>0.004282178822904825</v>
+        <v>9.944387784344144e-07</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3912150859832764</v>
       </c>
       <c r="V296" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8706926107406616</v>
       </c>
       <c r="W296" t="n">
-        <v>0.001637739245779812</v>
+        <v>0.2298986911773682</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3973691463470459</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.4003715515136719</v>
       </c>
       <c r="W297" t="n">
-        <v>0.03199056163430214</v>
+        <v>9.014436727738939e-06</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4065189361572266</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.3999492824077606</v>
       </c>
       <c r="W298" t="n">
-        <v>0.001190784852951765</v>
+        <v>4.316035119700246e-05</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3926479816436768</v>
       </c>
       <c r="V299" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8616625070571899</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0004372316179797053</v>
+        <v>0.219974622130394</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3993229866027832</v>
       </c>
       <c r="V300" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.5180279612541199</v>
       </c>
       <c r="W300" t="n">
-        <v>0.3322629928588867</v>
+        <v>0.01409087143838406</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3974528312683105</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.5164515972137451</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01158697903156281</v>
+        <v>0.0141607066616416</v>
       </c>
     </row>
     <row r="302" spans="1:23">
